--- a/xlsx/listaInvitadosEquipos.xlsx
+++ b/xlsx/listaInvitadosEquipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yellowhat\proyectos\CocaColaFutureEvent\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914F8147-3EE5-476B-B784-E17FA1F09B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEDB8A1-AD0C-4ABF-B07F-EFC271EA1E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{4579E0DE-1CCC-43B7-854E-89CAA5FE8CB2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="223">
   <si>
     <t>#</t>
   </si>
@@ -700,13 +700,22 @@
   </si>
   <si>
     <t>Nydia Abigail Villareal Lopez</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Correo Electrónico</t>
+  </si>
+  <si>
+    <t>Equipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +759,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -783,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -806,6 +823,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -813,7 +843,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,6 +873,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -850,7 +892,155 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F4C14566-B716-4B37-81D7-045F7580AF69}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{83B0304B-DCFA-4AB0-AF57-79D4B357DDCA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -861,6 +1051,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C37497D1-4A20-489A-87C0-CE8A7F13D31D}" name="Tabla1" displayName="Tabla1" ref="A1:D110" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="5">
+  <autoFilter ref="A1:D110" xr:uid="{C37497D1-4A20-489A-87C0-CE8A7F13D31D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4204ECE6-EAB5-458D-8BB1-675A174C6CC6}" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{84241695-8AE2-4541-95B7-3E7D8188BD29}" name="Nombre Completo" dataDxfId="2">
+      <calculatedColumnFormula>'Asistentes JBP'!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{912860C1-2FAF-460D-B025-67D6D1302E26}" name="Correo Electrónico" dataDxfId="1" dataCellStyle="Hipervínculo">
+      <calculatedColumnFormula>LOWER('Asistentes JBP'!F3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6D679EE4-91A6-478D-AF4A-70759967BA97}" name="Equipo" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4216,1763 +4423,1782 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF13DEC-0812-4D44-9718-C5367ACC5C76}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="14"/>
+    <col min="2" max="2" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B2" s="11" t="str">
         <f>'Asistentes JBP'!C3</f>
         <v>Brenda Cruz</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C2" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F3)</f>
         <v>bmcruz@psm.com.mx</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B3" s="11" t="str">
         <f>'Asistentes JBP'!C4</f>
         <v>Marcela García</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C3" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F4)</f>
         <v>marcela.garcia@arcacontal.com</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B4" s="11" t="str">
         <f>'Asistentes JBP'!C5</f>
         <v>Emmanuel Lugo</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C4" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F5)</f>
         <v>jelugog@bepensa.com</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B5" s="11" t="str">
         <f>'Asistentes JBP'!C6</f>
         <v>Anahid García</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C5" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F6)</f>
         <v>anahid.garcia@kof.com.mx</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B6" s="11" t="str">
         <f>'Asistentes JBP'!C7</f>
         <v>Karina Carranza</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C6" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F7)</f>
         <v>kcarranza@coca-cola.com</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B7" s="11" t="str">
         <f>'Asistentes JBP'!C8</f>
         <v>Roberto Casas</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C7" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F8)</f>
         <v>rccasas@psm.com.mx</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="str">
         <f>'Asistentes JBP'!C9</f>
         <v>Nerea Anaya</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C8" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F9)</f>
         <v>nanaya@coca-cola.com</v>
       </c>
-      <c r="D7" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B9" s="11" t="str">
         <f>'Asistentes JBP'!C10</f>
         <v>Erick Ramírez</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C9" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F10)</f>
         <v>erickramirez02@coca-cola.com</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B10" s="11" t="str">
         <f>'Asistentes JBP'!C11</f>
         <v>Paola Cruz</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C10" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F11)</f>
         <v>pcruz@psm.com.mx</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B11" s="11" t="str">
         <f>'Asistentes JBP'!C12</f>
         <v>Adriana Rivera</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C11" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F12)</f>
         <v>berrivera@coca-cola.com</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B12" s="11" t="str">
         <f>'Asistentes JBP'!C13</f>
         <v>Tania Vargas</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C12" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F13)</f>
         <v>tavargas@coca-cola.com</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B13" s="11" t="str">
         <f>'Asistentes JBP'!C14</f>
         <v>Fernanda Díaz</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C13" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F14)</f>
         <v>ferdiaz@coca-cola.com</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B14" s="11" t="str">
         <f>'Asistentes JBP'!C15</f>
         <v>Rebeca Damasceno</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C14" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F15)</f>
         <v>rdamasceno@coca-cola.com</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B15" s="11" t="str">
         <f>'Asistentes JBP'!C16</f>
         <v>Abe Heras</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C15" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F16)</f>
         <v>abheras@coca-cola.com</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B16" s="11" t="str">
         <f>'Asistentes JBP'!C17</f>
         <v>Paola Lugo Carrera</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C16" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F17)</f>
         <v>pacarrera@coca-cola.com</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B17" s="11" t="str">
         <f>'Asistentes JBP'!C18</f>
         <v>Luccas Fiuzza</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C17" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F18)</f>
         <v>lfiuza@coca-cola.com</v>
       </c>
-      <c r="D16" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="D17" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B18" s="11" t="str">
         <f>'Asistentes JBP'!C19</f>
         <v>Alejandro Galicia</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C18" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F19)</f>
         <v>alejandro.galicia@jvalle.com.mx</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B19" s="11" t="str">
         <f>'Asistentes JBP'!C20</f>
         <v>Cristian Ortíz</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C19" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F20)</f>
         <v>cristian.ortiz@jvalle.com.mx</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B20" s="11" t="str">
         <f>'Asistentes JBP'!C21</f>
         <v>Alan Coluna</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C20" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F21)</f>
         <v>alan.colunga@staclara.com.mx</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B21" s="11" t="str">
         <f>'Asistentes JBP'!C22</f>
         <v>Carlos Torres González</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C21" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F22)</f>
         <v>carlos.torres@cdf.com.mx</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B22" s="11" t="str">
         <f>'Asistentes JBP'!C23</f>
         <v>Jorge Monrroy</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C22" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F23)</f>
         <v>jmonrroy@rica.com.mx</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B23" s="11" t="str">
         <f>'Asistentes JBP'!C24</f>
         <v>Hugo Tellez</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C23" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F24)</f>
         <v>htellez@rica.com.mx</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B24" s="11" t="str">
         <f>'Asistentes JBP'!C25</f>
         <v>Antonio Ceballos</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C24" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F25)</f>
         <v>antonio.ceballos@imberacooling.com</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B25" s="11" t="str">
         <f>'Asistentes JBP'!C26</f>
         <v>Mari Villanueva</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C25" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F26)</f>
         <v>mvillanuevac@bepensa.com</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B26" s="11" t="str">
         <f>'Asistentes JBP'!C27</f>
         <v>Maday De la Torre</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C26" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F27)</f>
         <v>maday.de@imberacooling.com</v>
       </c>
-      <c r="D25" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="D26" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B27" s="11" t="str">
         <f>'Asistentes JBP'!C28</f>
         <v>Vladimir Andres De La Vega Parra</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C27" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F28)</f>
         <v>vladimir.delavega@imberacooling.com</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B28" s="11" t="str">
         <f>'Asistentes JBP'!C29</f>
         <v>Javier Doniz</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C28" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F29)</f>
         <v>jdoniz@coca-cola.com</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B29" s="11" t="str">
         <f>'Asistentes JBP'!C30</f>
         <v>Julia Barros</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C29" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F30)</f>
         <v>jubarros@coca-cola.com</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="str">
+      <c r="B30" s="11" t="str">
         <f>'Asistentes JBP'!C31</f>
         <v>Veronica Georgina Lopez</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C30" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F31)</f>
         <v>verlopez@coca-cola.com</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B31" s="11" t="str">
         <f>'Asistentes JBP'!C32</f>
         <v>Nydia Abigail Villareal Lopez</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C31" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F32)</f>
         <v>nydia.villarreal@efemsa.com</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B32" s="11" t="str">
         <f>'Asistentes JBP'!C33</f>
         <v>José Tomás Voticky Osorio</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C32" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F33)</f>
         <v>tomas.voticky@nielseniq.com</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B33" s="11" t="str">
         <f>'Asistentes JBP'!C34</f>
         <v>Armando Ávila</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C33" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F34)</f>
         <v>armando.avila@arcacontal.com</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B34" s="11" t="str">
         <f>'Asistentes JBP'!C35</f>
         <v>Rubén Bustillo</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C34" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F35)</f>
         <v>ruben.bustillo@kof.com.mx</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B35" s="11" t="str">
         <f>'Asistentes JBP'!C36</f>
         <v>Marco García Negrete</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C35" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F36)</f>
         <v>marco.garcian@kof.com.mx</v>
       </c>
-      <c r="D34" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="D35" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B36" s="11" t="str">
         <f>'Asistentes JBP'!C37</f>
         <v>Jacob Castillo</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C36" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F37)</f>
         <v>jacocastillo@coca-cola.com</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B37" s="11" t="str">
         <f>'Asistentes JBP'!C38</f>
         <v>Liliana Zuñiga</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C37" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F38)</f>
         <v>lizuniga@coca-cola.com</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="str">
+      <c r="B38" s="11" t="str">
         <f>'Asistentes JBP'!C39</f>
         <v>Luis Horacio Guardiola</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C38" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F39)</f>
         <v>lguardiola@coca-cola.com</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B39" s="11" t="str">
         <f>'Asistentes JBP'!C40</f>
         <v>Karina Sotomayor</v>
       </c>
-      <c r="C38" s="5" t="str">
+      <c r="C39" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F40)</f>
         <v>jesotomayor@coca-cola.com</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="str">
+      <c r="B40" s="11" t="str">
         <f>'Asistentes JBP'!C41</f>
         <v>Alessandra Soares</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C40" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F41)</f>
         <v>alegoncalves@coca-cola.com</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="str">
+      <c r="B41" s="11" t="str">
         <f>'Asistentes JBP'!C42</f>
         <v>Agustina Eizmendi</v>
       </c>
-      <c r="C40" s="5" t="str">
+      <c r="C41" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F42)</f>
         <v>aeizmendi@coca-cola.com</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="str">
+      <c r="B42" s="11" t="str">
         <f>'Asistentes JBP'!C43</f>
         <v>Claudia Angeles</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C42" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F43)</f>
         <v>clangeles@coca-cola.com</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="str">
+      <c r="B43" s="11" t="str">
         <f>'Asistentes JBP'!C44</f>
         <v>Victoria Cardenas</v>
       </c>
-      <c r="C42" s="5" t="str">
+      <c r="C43" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F44)</f>
         <v>vicardenas@coca-cola.com</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="str">
+      <c r="B44" s="11" t="str">
         <f>'Asistentes JBP'!C45</f>
         <v>Sergio Saul</v>
       </c>
-      <c r="C43" s="5" t="str">
+      <c r="C44" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F45)</f>
         <v>serggonzalez@coca-cola.com</v>
       </c>
-      <c r="D43" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="D44" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="str">
+      <c r="B45" s="11" t="str">
         <f>'Asistentes JBP'!C46</f>
         <v>Stephanie Markmann</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C45" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F46)</f>
         <v>stephanie.markmann@vmlyrcommerce.com</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="str">
+      <c r="B46" s="11" t="str">
         <f>'Asistentes JBP'!C47</f>
         <v>Eduardo Bogado</v>
       </c>
-      <c r="C45" s="5" t="str">
+      <c r="C46" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F47)</f>
         <v>ebogado@coca-cola.com</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="str">
+      <c r="B47" s="11" t="str">
         <f>'Asistentes JBP'!C48</f>
         <v>Juan José Negrete</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C47" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F48)</f>
         <v>juan.negrete@imberacooling.com</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="str">
+      <c r="B48" s="11" t="str">
         <f>'Asistentes JBP'!C49</f>
         <v>José Ricardo Arellano</v>
       </c>
-      <c r="C47" s="5" t="str">
+      <c r="C48" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F49)</f>
         <v>ricardo.arellano@imberacooling.com</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="str">
+      <c r="B49" s="11" t="str">
         <f>'Asistentes JBP'!C50</f>
         <v>Enrique Preciado</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C49" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F50)</f>
         <v>epreciado@gocsa.com.mx</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="str">
+      <c r="B50" s="11" t="str">
         <f>'Asistentes JBP'!C51</f>
         <v>Alma Angélica González Orozco</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C50" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F51)</f>
         <v>almaa.gonzalez@oxxo.com</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="str">
+      <c r="B51" s="11" t="str">
         <f>'Asistentes JBP'!C52</f>
         <v>Ana Paola Ocejo</v>
       </c>
-      <c r="C50" s="5" t="str">
+      <c r="C51" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F52)</f>
         <v>ana.ocejo@oxxo.com</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="str">
+      <c r="B52" s="11" t="str">
         <f>'Asistentes JBP'!C53</f>
         <v>Brenda Gómez</v>
       </c>
-      <c r="C51" s="5" t="str">
+      <c r="C52" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F53)</f>
         <v>brenda.gomez@oxxo.com</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="str">
+      <c r="B53" s="11" t="str">
         <f>'Asistentes JBP'!C54</f>
         <v>Cecilia Lira</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C53" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F54)</f>
         <v>ana.lira@oxxo.com</v>
       </c>
-      <c r="D52" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="D53" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="str">
+      <c r="B54" s="11" t="str">
         <f>'Asistentes JBP'!C55</f>
         <v>Edith Montalvo</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C54" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F55)</f>
         <v>edith.montalvo@oxxo.com</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="str">
+      <c r="B55" s="11" t="str">
         <f>'Asistentes JBP'!C56</f>
         <v>Jesus Hernandez</v>
       </c>
-      <c r="C54" s="5" t="str">
+      <c r="C55" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F56)</f>
         <v>jesus.hernandezg@oxxo.com</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="str">
+      <c r="B56" s="11" t="str">
         <f>'Asistentes JBP'!C57</f>
         <v>Jorge Robles</v>
       </c>
-      <c r="C55" s="5" t="str">
+      <c r="C56" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F57)</f>
         <v>jorge.robles@oxxo.com</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B56" s="3" t="str">
+      <c r="B57" s="11" t="str">
         <f>'Asistentes JBP'!C58</f>
         <v>Ana Karen Leal</v>
       </c>
-      <c r="C56" s="5" t="str">
+      <c r="C57" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F58)</f>
         <v>ana.leal@oxxo.com</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B58" s="11" t="str">
         <f>'Asistentes JBP'!C59</f>
         <v>Juan Carlos Collins</v>
       </c>
-      <c r="C57" s="5" t="str">
+      <c r="C58" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F59)</f>
         <v>juan.collins@oxxo.com</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B58" s="3" t="str">
+      <c r="B59" s="11" t="str">
         <f>'Asistentes JBP'!C60</f>
         <v>Andres Cantú</v>
       </c>
-      <c r="C58" s="5" t="str">
+      <c r="C59" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F60)</f>
         <v>jesus.cantu@oxxo.com</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="str">
+      <c r="B60" s="11" t="str">
         <f>'Asistentes JBP'!C61</f>
         <v>Armando Monroy</v>
       </c>
-      <c r="C59" s="5" t="str">
+      <c r="C60" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F61)</f>
         <v>armando.monroy@oxxo.com</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="str">
+      <c r="B61" s="11" t="str">
         <f>'Asistentes JBP'!C62</f>
         <v>Brenda Garza</v>
       </c>
-      <c r="C60" s="5" t="str">
+      <c r="C61" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F62)</f>
         <v>brenda.garza@oxxo.com</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="str">
+      <c r="B62" s="11" t="str">
         <f>'Asistentes JBP'!C63</f>
         <v>Carlos Aguilar</v>
       </c>
-      <c r="C61" s="5" t="str">
+      <c r="C62" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F63)</f>
         <v>carlosa.aguilar@oxxo.com</v>
       </c>
-      <c r="D61" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="D62" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B62" s="3" t="str">
+      <c r="B63" s="11" t="str">
         <f>'Asistentes JBP'!C64</f>
         <v>Dariana Cantú</v>
       </c>
-      <c r="C62" s="5" t="str">
+      <c r="C63" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F64)</f>
         <v>dariana.cantu@oxxo.com</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="str">
+      <c r="B64" s="11" t="str">
         <f>'Asistentes JBP'!C65</f>
         <v>Francisco Carrera</v>
       </c>
-      <c r="C63" s="5" t="str">
+      <c r="C64" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F65)</f>
         <v>francisco.carrera@oxxo.com</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B65" s="11" t="str">
         <f>'Asistentes JBP'!C66</f>
         <v>Francisco Yañez</v>
       </c>
-      <c r="C64" s="5" t="str">
+      <c r="C65" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F66)</f>
         <v>francisco.yanez@oxxo.com</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B65" s="3" t="str">
+      <c r="B66" s="11" t="str">
         <f>'Asistentes JBP'!C67</f>
         <v>Héctor Urbina</v>
       </c>
-      <c r="C65" s="5" t="str">
+      <c r="C66" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F67)</f>
         <v>hector.urbina@oxxo.com</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B66" s="3" t="str">
+      <c r="B67" s="11" t="str">
         <f>'Asistentes JBP'!C68</f>
         <v>Jorge Balandra</v>
       </c>
-      <c r="C66" s="5" t="str">
+      <c r="C67" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F68)</f>
         <v>jorge.balandra@oxxo.com</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B67" s="3" t="str">
+      <c r="B68" s="11" t="str">
         <f>'Asistentes JBP'!C69</f>
         <v>Juan Gama</v>
       </c>
-      <c r="C67" s="5" t="str">
+      <c r="C68" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F69)</f>
         <v>juan.gamacabrera@oxxo.com</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B68" s="3" t="str">
+      <c r="B69" s="11" t="str">
         <f>'Asistentes JBP'!C70</f>
         <v>Kaory Tamez</v>
       </c>
-      <c r="C68" s="5" t="str">
+      <c r="C69" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F70)</f>
         <v>patricia.tamez@oxxo.com</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B69" s="3" t="str">
+      <c r="B70" s="11" t="str">
         <f>'Asistentes JBP'!C71</f>
         <v>Luis Zuñiga</v>
       </c>
-      <c r="C69" s="5" t="str">
+      <c r="C70" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F71)</f>
         <v>luis.zuniga@oxxo.com</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="str">
+      <c r="B71" s="11" t="str">
         <f>'Asistentes JBP'!C72</f>
         <v>Mariana Briones</v>
       </c>
-      <c r="C70" s="5" t="str">
+      <c r="C71" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F72)</f>
         <v>mariana.briones@oxxo.com</v>
       </c>
-      <c r="D70" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="D71" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B71" s="3" t="str">
+      <c r="B72" s="11" t="str">
         <f>'Asistentes JBP'!C73</f>
         <v>Miriam Santos</v>
       </c>
-      <c r="C71" s="5" t="str">
+      <c r="C72" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F73)</f>
         <v>miriam.santos@oxxo.com</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B72" s="3" t="str">
+      <c r="B73" s="11" t="str">
         <f>'Asistentes JBP'!C74</f>
         <v>Ricardo Tamez</v>
       </c>
-      <c r="C72" s="5" t="str">
+      <c r="C73" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F74)</f>
         <v>ricardo.tamez@oxxo.com</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B73" s="3" t="str">
+      <c r="B74" s="11" t="str">
         <f>'Asistentes JBP'!C75</f>
         <v>Roberto Vota</v>
       </c>
-      <c r="C73" s="5" t="str">
+      <c r="C74" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F75)</f>
         <v>roberto.vota@oxxo.com</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="str">
+      <c r="B75" s="11" t="str">
         <f>'Asistentes JBP'!C76</f>
         <v>Adlemy Abigail Estrada Quiñonez</v>
       </c>
-      <c r="C74" s="5" t="str">
+      <c r="C75" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F76)</f>
         <v>adlemy.estrada@oxxo.com</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B75" s="3" t="str">
+      <c r="B76" s="11" t="str">
         <f>'Asistentes JBP'!C77</f>
         <v>Carlos Icaza</v>
       </c>
-      <c r="C75" s="5" t="str">
+      <c r="C76" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F77)</f>
         <v>carlos.icaza@oxxo.com</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B76" s="3" t="str">
+      <c r="B77" s="11" t="str">
         <f>'Asistentes JBP'!C78</f>
         <v>Marcelo Arredondo</v>
       </c>
-      <c r="C76" s="5" t="str">
+      <c r="C77" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F78)</f>
         <v>marcelo.arredondo@oxxo.com</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B77" s="3" t="str">
+      <c r="B78" s="11" t="str">
         <f>'Asistentes JBP'!C79</f>
         <v>Bernardo Ruiz Paz</v>
       </c>
-      <c r="C77" s="5" t="str">
+      <c r="C78" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F79)</f>
         <v>jesusb.ruiz@oxxo.com</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B79" s="11" t="str">
         <f>'Asistentes JBP'!C80</f>
         <v>Servando Cantú Treviño</v>
       </c>
-      <c r="C78" s="5" t="str">
+      <c r="C79" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F80)</f>
         <v>servando.cantu@oxxo.com</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B79" s="3" t="str">
+      <c r="B80" s="11" t="str">
         <f>'Asistentes JBP'!C81</f>
         <v>Leonardo López Cabrera</v>
       </c>
-      <c r="C79" s="5" t="str">
+      <c r="C80" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F81)</f>
         <v>leonardo.lopez@jvalle.com.mx</v>
       </c>
-      <c r="D79" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="D80" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B80" s="3" t="str">
+      <c r="B81" s="11" t="str">
         <f>'Asistentes JBP'!C82</f>
         <v>Miguel Lozano</v>
       </c>
-      <c r="C80" s="5" t="str">
+      <c r="C81" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F82)</f>
         <v>miguel.lozano@arcacontal.com</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B81" s="3" t="str">
+      <c r="B82" s="11" t="str">
         <f>'Asistentes JBP'!C83</f>
         <v>Efrén Vidal Ortiz</v>
       </c>
-      <c r="C81" s="5" t="str">
+      <c r="C82" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F83)</f>
         <v>evidalo@bepensa.com</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B83" s="11" t="str">
         <f>'Asistentes JBP'!C84</f>
         <v>Rafael  Rodríguez</v>
       </c>
-      <c r="C82" s="5" t="str">
+      <c r="C83" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F84)</f>
         <v>rarodriguezh@bepensa.com</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B84" s="11" t="str">
         <f>'Asistentes JBP'!C85</f>
         <v>Agustín Alcazar</v>
       </c>
-      <c r="C83" s="5" t="str">
+      <c r="C84" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F85)</f>
         <v>agustin.alcazar@kof.com.mx</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B85" s="11" t="str">
         <f>'Asistentes JBP'!C86</f>
         <v>Angel Martínez</v>
       </c>
-      <c r="C84" s="5" t="str">
+      <c r="C85" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F86)</f>
         <v>angel.martinezr@kof.com.mx</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B86" s="11" t="str">
         <f>'Asistentes JBP'!C87</f>
         <v>Franco Taylor</v>
       </c>
-      <c r="C85" s="5" t="str">
+      <c r="C86" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F87)</f>
         <v>ftaylor@coca-cola.com</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B87" s="11" t="str">
         <f>'Asistentes JBP'!C88</f>
         <v>Leticia Brandao</v>
       </c>
-      <c r="C86" s="5" t="str">
+      <c r="C87" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F88)</f>
         <v>lbrandao@coca-cola.com</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B88" s="11" t="str">
         <f>'Asistentes JBP'!C89</f>
         <v>Karla Zamudioa</v>
       </c>
-      <c r="C87" s="5" t="str">
+      <c r="C88" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F89)</f>
         <v>gonrodriguez@coca-cola.com</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B89" s="11" t="str">
         <f>'Asistentes JBP'!C90</f>
         <v>Ash Yadeth Andraca</v>
       </c>
-      <c r="C88" s="5" t="str">
+      <c r="C89" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F90)</f>
         <v>ashandraca@coca-cola.com</v>
       </c>
-      <c r="D88" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="D89" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B90" s="11" t="str">
         <f>'Asistentes JBP'!C91</f>
         <v>Giovanni Vallarino</v>
       </c>
-      <c r="C89" s="5" t="str">
+      <c r="C90" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F91)</f>
         <v>gvallarino@coca-cola.com</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B90" s="3" t="str">
+      <c r="B91" s="11" t="str">
         <f>'Asistentes JBP'!C92</f>
         <v>Daniel Rodríguez</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C91" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F92)</f>
         <v>daniel.rodriguezb@jvalle.com.mx</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B91" s="3" t="str">
+      <c r="B92" s="11" t="str">
         <f>'Asistentes JBP'!C93</f>
         <v>Eduardo Ramírez</v>
       </c>
-      <c r="C91" s="5" t="str">
+      <c r="C92" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F93)</f>
         <v>eduardo.ramirez@staclara.com.mx</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B92" s="3" t="str">
+      <c r="B93" s="11" t="str">
         <f>'Asistentes JBP'!C94</f>
         <v>Johan Islas</v>
       </c>
-      <c r="C92" s="5" t="str">
+      <c r="C93" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F94)</f>
         <v>jislas@coca-cola.com</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B93" s="3" t="str">
+      <c r="B94" s="11" t="str">
         <f>'Asistentes JBP'!C95</f>
         <v>Eymi Renteria</v>
       </c>
-      <c r="C93" s="5" t="str">
+      <c r="C94" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F95)</f>
         <v>erenteria@coca-cola.com</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B94" s="3" t="str">
+      <c r="B95" s="11" t="str">
         <f>'Asistentes JBP'!C96</f>
         <v>Rodolfo Lara Raygoza</v>
       </c>
-      <c r="C94" s="5" t="str">
+      <c r="C95" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F96)</f>
         <v>rlara@cdf.com.mx</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B95" s="3" t="str">
+      <c r="B96" s="11" t="str">
         <f>'Asistentes JBP'!C97</f>
         <v xml:space="preserve">Carmen López </v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C96" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F97)</f>
         <v>carmen.lopez@brn.com.mx</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B96" s="3" t="str">
+      <c r="B97" s="11" t="str">
         <f>'Asistentes JBP'!C98</f>
         <v>Daniel Huerta García</v>
       </c>
-      <c r="C96" s="5" t="str">
+      <c r="C97" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F98)</f>
         <v>daniel.huerta@elnayar.com</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D97" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B98" s="11" t="str">
         <f>'Asistentes JBP'!C99</f>
         <v>Max León</v>
       </c>
-      <c r="C97" s="5" t="str">
+      <c r="C98" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F99)</f>
         <v>maxdeleon@coca-cola.com</v>
       </c>
-      <c r="D97" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="D98" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B99" s="11" t="str">
         <f>'Asistentes JBP'!C100</f>
         <v>Cynthia Gonzalez Chi</v>
       </c>
-      <c r="C98" s="5" t="e">
+      <c r="C99" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F100)</f>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D99" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B100" s="11" t="str">
         <f>'Asistentes JBP'!C101</f>
         <v>Daniel Pardo</v>
       </c>
-      <c r="C99" s="5" t="e">
+      <c r="C100" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F101)</f>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D100" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B101" s="11" t="str">
         <f>'Asistentes JBP'!C102</f>
         <v>Daniela Flores</v>
       </c>
-      <c r="C100" s="5" t="e">
+      <c r="C101" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F102)</f>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D101" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B101" s="3" t="str">
+      <c r="B102" s="11" t="str">
         <f>'Asistentes JBP'!C103</f>
         <v>Elvira Lara</v>
       </c>
-      <c r="C101" s="5" t="e">
+      <c r="C102" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F103)</f>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D102" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B102" s="3" t="str">
+      <c r="B103" s="11" t="str">
         <f>'Asistentes JBP'!C104</f>
         <v>Federico Guerra</v>
       </c>
-      <c r="C102" s="5" t="e">
+      <c r="C103" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F104)</f>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D103" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B103" s="3" t="str">
+      <c r="B104" s="11" t="str">
         <f>'Asistentes JBP'!C105</f>
         <v>Jorge Esquer Landeros</v>
       </c>
-      <c r="C103" s="5" t="e">
+      <c r="C104" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F105)</f>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D104" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B104" s="3" t="str">
+      <c r="B105" s="11" t="str">
         <f>'Asistentes JBP'!C106</f>
         <v>Kathia Martinez</v>
       </c>
-      <c r="C104" s="5" t="str">
+      <c r="C105" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F106)</f>
         <v>kathia.martinezalcala@oxxo.com</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D105" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B105" s="3" t="str">
+      <c r="B106" s="11" t="str">
         <f>'Asistentes JBP'!C107</f>
         <v>Marcos Garza</v>
       </c>
-      <c r="C105" s="5" t="e">
+      <c r="C106" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F107)</f>
         <v>#N/A</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D106" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B106" s="3" t="str">
+      <c r="B107" s="11" t="str">
         <f>'Asistentes JBP'!C108</f>
         <v>Mayte Morales</v>
       </c>
-      <c r="C106" s="5" t="e">
+      <c r="C107" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F108)</f>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="D107" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B107" s="3" t="str">
+      <c r="B108" s="11" t="str">
         <f>'Asistentes JBP'!C109</f>
         <v>Persona adicional Snacking</v>
       </c>
-      <c r="C107" s="5" t="e">
+      <c r="C108" s="17" t="e">
         <f>LOWER('Asistentes JBP'!F109)</f>
         <v>#N/A</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D108" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B108" s="3" t="str">
+      <c r="B109" s="11" t="str">
         <f>'Asistentes JBP'!C110</f>
         <v>Raúl Salmerón</v>
       </c>
-      <c r="C108" s="5" t="str">
+      <c r="C109" s="17" t="str">
         <f>LOWER('Asistentes JBP'!F110)</f>
         <v>raul.salmeron@oxxo.com</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D109" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
         <v>109</v>
       </c>
-      <c r="B109" s="3" t="str">
+      <c r="B110" s="15" t="str">
         <f>'Asistentes JBP'!C111</f>
         <v xml:space="preserve">Sandra Peña </v>
       </c>
-      <c r="C109" s="5" t="str">
+      <c r="C110" s="18" t="str">
         <f>LOWER('Asistentes JBP'!F111)</f>
         <v>sandra.pena@oxxo.com</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D110" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>